--- a/results/NEW/Pretomanid.xlsx
+++ b/results/NEW/Pretomanid.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="263">
   <si>
     <t>mutation</t>
   </si>
@@ -483,7 +483,7 @@
     <t>2.2.2</t>
   </si>
   <si>
-    <t>canetti</t>
+    <t>4.8</t>
   </si>
   <si>
     <t>1.1.3</t>
@@ -505,9 +505,6 @@
   </si>
   <si>
     <t>BOV_AFRI</t>
-  </si>
-  <si>
-    <t>4.8</t>
   </si>
   <si>
     <t>4.9</t>
@@ -1424,16 +1421,16 @@
         <v>150</v>
       </c>
       <c r="AO2">
-        <v>0.3948261852309593</v>
+        <v>0.3398963531716729</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS2" t="s">
         <v>174</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1552,19 +1549,19 @@
         <v>150</v>
       </c>
       <c r="AO3">
-        <v>0.2382143165224822</v>
+        <v>0.2075131214422963</v>
       </c>
       <c r="AP3">
-        <v>0.1058181818181818</v>
+        <v>0.08415</v>
       </c>
       <c r="AQ3" t="s">
         <v>152</v>
       </c>
       <c r="AR3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS3" t="s">
         <v>174</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1683,19 +1680,19 @@
         <v>150</v>
       </c>
       <c r="AO4">
-        <v>0.2377465610115853</v>
+        <v>0.2078082057171839</v>
       </c>
       <c r="AP4">
-        <v>0.1058181818181818</v>
+        <v>0.0605</v>
       </c>
       <c r="AQ4" t="s">
         <v>152</v>
       </c>
       <c r="AR4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS4" t="s">
         <v>174</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1814,7 +1811,7 @@
         <v>150</v>
       </c>
       <c r="AO5">
-        <v>0.2939605992210564</v>
+        <v>0.2523565216664045</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -1823,10 +1820,10 @@
         <v>153</v>
       </c>
       <c r="AR5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS5" t="s">
         <v>174</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1944,14 +1941,20 @@
       <c r="AN6" t="s">
         <v>150</v>
       </c>
+      <c r="AO6">
+        <v>0.2191424949340648</v>
+      </c>
+      <c r="AP6">
+        <v>0.07294736842105259</v>
+      </c>
       <c r="AQ6" t="s">
         <v>152</v>
       </c>
       <c r="AR6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS6" t="s">
         <v>174</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -2070,19 +2073,19 @@
         <v>150</v>
       </c>
       <c r="AO7">
-        <v>0.262251223897277</v>
+        <v>0.226717024057652</v>
       </c>
       <c r="AP7">
-        <v>0.1058181818181818</v>
+        <v>0.0605</v>
       </c>
       <c r="AQ7" t="s">
         <v>154</v>
       </c>
       <c r="AR7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS7" t="s">
         <v>174</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -2204,19 +2207,16 @@
         <v>150</v>
       </c>
       <c r="AO8">
-        <v>0.0169678563682034</v>
+        <v>0.044160120853359</v>
       </c>
       <c r="AP8">
-        <v>0.4530609756097561</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>155</v>
+        <v>0.02475</v>
       </c>
       <c r="AR8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS8" t="s">
         <v>174</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2338,19 +2338,16 @@
         <v>150</v>
       </c>
       <c r="AO9">
-        <v>0.016967856368204</v>
+        <v>0.0441601208533593</v>
       </c>
       <c r="AP9">
-        <v>0.4530609756097561</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>155</v>
+        <v>0.02475</v>
       </c>
       <c r="AR9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS9" t="s">
         <v>174</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2472,19 +2469,16 @@
         <v>150</v>
       </c>
       <c r="AO10">
-        <v>0.0169678563682018</v>
+        <v>0.0441601208533591</v>
       </c>
       <c r="AP10">
-        <v>0.4530609756097561</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>155</v>
+        <v>0.02475</v>
       </c>
       <c r="AR10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS10" t="s">
         <v>174</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2606,19 +2600,16 @@
         <v>150</v>
       </c>
       <c r="AO11">
-        <v>0.0169678563682031</v>
+        <v>0.0441601208533593</v>
       </c>
       <c r="AP11">
-        <v>0.4530609756097561</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>155</v>
+        <v>0.02475</v>
       </c>
       <c r="AR11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS11" t="s">
         <v>174</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -2740,19 +2731,16 @@
         <v>150</v>
       </c>
       <c r="AO12">
-        <v>0.0169678563682059</v>
+        <v>0.044160120853359</v>
       </c>
       <c r="AP12">
-        <v>0.4530609756097561</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>155</v>
+        <v>0.02475</v>
       </c>
       <c r="AR12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS12" t="s">
         <v>174</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2874,16 +2862,19 @@
         <v>151</v>
       </c>
       <c r="AO13">
-        <v>-0.0519635173453832</v>
+        <v>-0.0440850753083326</v>
       </c>
       <c r="AP13">
-        <v>0.4530609756097561</v>
+        <v>0.4175217391304348</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>155</v>
       </c>
       <c r="AR13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS13" t="s">
         <v>174</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -3002,19 +2993,19 @@
         <v>150</v>
       </c>
       <c r="AO14">
-        <v>-0.0038517590009553</v>
+        <v>0.0103335373464809</v>
       </c>
       <c r="AP14">
-        <v>0.5087111111111111</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ14" t="s">
         <v>156</v>
       </c>
       <c r="AR14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS14" t="s">
         <v>174</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -3133,19 +3124,19 @@
         <v>150</v>
       </c>
       <c r="AO15">
-        <v>-0.007812811249377501</v>
+        <v>-0.0086009531848049</v>
       </c>
       <c r="AP15">
-        <v>0.5675531914893618</v>
+        <v>0.5649456521739131</v>
       </c>
       <c r="AQ15" t="s">
         <v>157</v>
       </c>
       <c r="AR15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS15" t="s">
         <v>174</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3264,19 +3255,19 @@
         <v>150</v>
       </c>
       <c r="AO16">
-        <v>0.0210604399274369</v>
+        <v>0.0132418934833762</v>
       </c>
       <c r="AP16">
-        <v>0.4530609756097561</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ16" t="s">
         <v>158</v>
       </c>
       <c r="AR16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS16" t="s">
         <v>174</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -3395,19 +3386,19 @@
         <v>150</v>
       </c>
       <c r="AO17">
-        <v>-0.0022449870793743</v>
+        <v>-0.0022911425140198</v>
       </c>
       <c r="AP17">
-        <v>0.595</v>
+        <v>0.633</v>
       </c>
       <c r="AQ17" t="s">
         <v>159</v>
       </c>
       <c r="AR17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS17" t="s">
         <v>174</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -3526,19 +3517,19 @@
         <v>150</v>
       </c>
       <c r="AO18">
-        <v>0.000122823159995</v>
+        <v>0.0006989760348899</v>
       </c>
       <c r="AP18">
-        <v>0.4816162790697674</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ18" t="s">
         <v>153</v>
       </c>
       <c r="AR18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS18" t="s">
         <v>174</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -3657,19 +3648,19 @@
         <v>150</v>
       </c>
       <c r="AO19">
-        <v>0.000122823159995</v>
+        <v>0.0006989760348899</v>
       </c>
       <c r="AP19">
-        <v>0.4816162790697674</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ19" t="s">
         <v>153</v>
       </c>
       <c r="AR19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS19" t="s">
         <v>174</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -3788,19 +3779,19 @@
         <v>150</v>
       </c>
       <c r="AO20">
-        <v>0.0183519947548997</v>
+        <v>0.0168753731692404</v>
       </c>
       <c r="AP20">
-        <v>0.4530609756097561</v>
+        <v>0.5031147540983607</v>
       </c>
       <c r="AQ20" t="s">
         <v>152</v>
       </c>
       <c r="AR20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS20" t="s">
         <v>174</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -3919,19 +3910,19 @@
         <v>150</v>
       </c>
       <c r="AO21">
-        <v>0.0230993644252561</v>
+        <v>0.0083552222131427</v>
       </c>
       <c r="AP21">
-        <v>0.4530609756097561</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ21" t="s">
         <v>160</v>
       </c>
       <c r="AR21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS21" t="s">
         <v>174</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -4050,19 +4041,19 @@
         <v>150</v>
       </c>
       <c r="AO22">
-        <v>-0.005507601727004</v>
+        <v>-0.0059033698598761</v>
       </c>
       <c r="AP22">
-        <v>0.5779583333333332</v>
+        <v>0.5785312500000001</v>
       </c>
       <c r="AQ22" t="s">
         <v>161</v>
       </c>
       <c r="AR22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS22" t="s">
         <v>174</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -4181,16 +4172,16 @@
         <v>150</v>
       </c>
       <c r="AO23">
-        <v>-0.1147291090320885</v>
+        <v>-0.06317060474258079</v>
       </c>
       <c r="AP23">
-        <v>0.1131666666666666</v>
+        <v>0.132</v>
       </c>
       <c r="AR23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS23" t="s">
         <v>174</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -4309,19 +4300,19 @@
         <v>150</v>
       </c>
       <c r="AO24">
-        <v>-0.0050436744494188</v>
+        <v>-0.0040132284140013</v>
       </c>
       <c r="AP24">
-        <v>0.5675531914893618</v>
+        <v>0.5808673469387754</v>
       </c>
       <c r="AQ24" t="s">
         <v>161</v>
       </c>
       <c r="AR24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS24" t="s">
         <v>174</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -4440,19 +4431,19 @@
         <v>150</v>
       </c>
       <c r="AO25">
-        <v>-0.1168607279746453</v>
+        <v>-0.0561934672215792</v>
       </c>
       <c r="AP25">
-        <v>0.2147857142857143</v>
+        <v>0.1504799999999999</v>
       </c>
       <c r="AQ25" t="s">
         <v>162</v>
       </c>
       <c r="AR25" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS25" t="s">
         <v>174</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -4571,19 +4562,19 @@
         <v>150</v>
       </c>
       <c r="AO26">
-        <v>0.0299744548462453</v>
+        <v>0.0239158960983774</v>
       </c>
       <c r="AP26">
-        <v>0.4530609756097561</v>
+        <v>0.4212765957446808</v>
       </c>
       <c r="AQ26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AR26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS26" t="s">
         <v>174</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -4702,19 +4693,19 @@
         <v>150</v>
       </c>
       <c r="AO27">
-        <v>0.0411691833838071</v>
+        <v>0.0218456202078931</v>
       </c>
       <c r="AP27">
-        <v>0.4530609756097561</v>
+        <v>0.5031147540983607</v>
       </c>
       <c r="AQ27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR27" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS27" t="s">
         <v>174</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -4833,19 +4824,19 @@
         <v>150</v>
       </c>
       <c r="AO28">
-        <v>0.008840933141027499</v>
+        <v>-0.0013404708451044</v>
       </c>
       <c r="AP28">
-        <v>0.4530609756097561</v>
+        <v>0.5808673469387754</v>
       </c>
       <c r="AQ28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS28" t="s">
         <v>174</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -4964,19 +4955,19 @@
         <v>150</v>
       </c>
       <c r="AO29">
-        <v>-0.0067920335738466</v>
+        <v>-0.0058023088053697</v>
       </c>
       <c r="AP29">
-        <v>0.5779583333333332</v>
+        <v>0.5679473684210526</v>
       </c>
       <c r="AQ29" t="s">
         <v>152</v>
       </c>
       <c r="AR29" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS29" t="s">
         <v>174</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -5095,19 +5086,19 @@
         <v>150</v>
       </c>
       <c r="AO30">
-        <v>0.0159444549770802</v>
+        <v>0.0303230991943952</v>
       </c>
       <c r="AP30">
-        <v>0.4530609756097561</v>
+        <v>0.3890930232558139</v>
       </c>
       <c r="AQ30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AR30" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS30" t="s">
         <v>174</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -5226,19 +5217,19 @@
         <v>150</v>
       </c>
       <c r="AO31">
-        <v>-0.1638823823801658</v>
+        <v>-0.0844647303824001</v>
       </c>
       <c r="AP31">
-        <v>0.097</v>
+        <v>0.0304615384615384</v>
       </c>
       <c r="AQ31" t="s">
         <v>162</v>
       </c>
       <c r="AR31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS31" t="s">
         <v>174</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -5357,19 +5348,19 @@
         <v>150</v>
       </c>
       <c r="AO32">
-        <v>0.0141424694312829</v>
+        <v>0.0068515200626379</v>
       </c>
       <c r="AP32">
-        <v>0.4530609756097561</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ32" t="s">
         <v>153</v>
       </c>
       <c r="AR32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS32" t="s">
         <v>174</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -5488,19 +5479,19 @@
         <v>150</v>
       </c>
       <c r="AO33">
-        <v>0.0111357690745801</v>
+        <v>-0.0031126091260797</v>
       </c>
       <c r="AP33">
-        <v>0.4530609756097561</v>
+        <v>0.5679473684210526</v>
       </c>
       <c r="AQ33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS33" t="s">
         <v>174</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:45">
@@ -5619,19 +5610,19 @@
         <v>150</v>
       </c>
       <c r="AO34">
-        <v>-0.0491468829986695</v>
+        <v>-0.0556921275107428</v>
       </c>
       <c r="AP34">
-        <v>0.4530609756097561</v>
+        <v>0.1686666666666667</v>
       </c>
       <c r="AQ34" t="s">
         <v>158</v>
       </c>
       <c r="AR34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS34" t="s">
         <v>174</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -5750,19 +5741,19 @@
         <v>150</v>
       </c>
       <c r="AO35">
-        <v>0.0087935732935786</v>
+        <v>0.0041017589003147</v>
       </c>
       <c r="AP35">
-        <v>0.4530609756097561</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR35" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS35" t="s">
         <v>174</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -5881,19 +5872,19 @@
         <v>150</v>
       </c>
       <c r="AO36">
-        <v>0.0948767266976321</v>
+        <v>0.07776720529778459</v>
       </c>
       <c r="AP36">
-        <v>0.4530609756097561</v>
+        <v>0.2522903225806451</v>
       </c>
       <c r="AQ36" t="s">
         <v>152</v>
       </c>
       <c r="AR36" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS36" t="s">
         <v>174</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:45">
@@ -6012,19 +6003,19 @@
         <v>150</v>
       </c>
       <c r="AO37">
-        <v>-0.03195591746898</v>
+        <v>-0.023972661319447</v>
       </c>
       <c r="AP37">
-        <v>0.4530609756097561</v>
+        <v>0.4333584905660377</v>
       </c>
       <c r="AQ37" t="s">
         <v>152</v>
       </c>
       <c r="AR37" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS37" t="s">
         <v>174</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:45">
@@ -6143,19 +6134,19 @@
         <v>150</v>
       </c>
       <c r="AO38">
-        <v>0.0146673953242137</v>
+        <v>0.0135585058634548</v>
       </c>
       <c r="AP38">
-        <v>0.4530609756097561</v>
+        <v>0.5031147540983607</v>
       </c>
       <c r="AQ38" t="s">
         <v>152</v>
       </c>
       <c r="AR38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS38" t="s">
         <v>174</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:45">
@@ -6274,19 +6265,19 @@
         <v>150</v>
       </c>
       <c r="AO39">
-        <v>0.0097636289788981</v>
+        <v>0.0140380184461251</v>
       </c>
       <c r="AP39">
-        <v>0.4530609756097561</v>
+        <v>0.5031147540983607</v>
       </c>
       <c r="AQ39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AR39" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS39" t="s">
         <v>174</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:45">
@@ -6405,19 +6396,19 @@
         <v>150</v>
       </c>
       <c r="AO40">
-        <v>0.0256804893938425</v>
+        <v>0.0148459039830998</v>
       </c>
       <c r="AP40">
-        <v>0.4530609756097561</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR40" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS40" t="s">
         <v>174</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:45">
@@ -6536,19 +6527,19 @@
         <v>150</v>
       </c>
       <c r="AO41">
-        <v>0.0911175713603245</v>
+        <v>0.07602760746590199</v>
       </c>
       <c r="AP41">
-        <v>0.4530609756097561</v>
+        <v>0.2184827586206896</v>
       </c>
       <c r="AQ41" t="s">
         <v>161</v>
       </c>
       <c r="AR41" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS41" t="s">
         <v>174</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:45">
@@ -6667,19 +6658,19 @@
         <v>150</v>
       </c>
       <c r="AO42">
-        <v>0.0386309981043605</v>
+        <v>-0.0119503089554079</v>
       </c>
       <c r="AP42">
-        <v>0.4530609756097561</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AR42" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS42" t="s">
         <v>174</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:45">
@@ -6798,16 +6789,16 @@
         <v>150</v>
       </c>
       <c r="AO43">
-        <v>0.0794733021760369</v>
+        <v>-0.0484120171153961</v>
       </c>
       <c r="AP43">
-        <v>0.4530609756097561</v>
+        <v>0.2050714285714286</v>
       </c>
       <c r="AR43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS43" t="s">
         <v>174</v>
-      </c>
-      <c r="AS43" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:45">
@@ -6926,19 +6917,19 @@
         <v>150</v>
       </c>
       <c r="AO44">
-        <v>-0.0438025873821492</v>
+        <v>0.0067420424399376</v>
       </c>
       <c r="AP44">
-        <v>0.4530609756097561</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AR44" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS44" t="s">
         <v>174</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:45">
@@ -7057,19 +7048,19 @@
         <v>150</v>
       </c>
       <c r="AO45">
-        <v>0.018925372577469</v>
+        <v>0.0218440892645714</v>
       </c>
       <c r="AP45">
-        <v>0.4530609756097561</v>
+        <v>0.4333584905660377</v>
       </c>
       <c r="AQ45" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR45" t="s">
         <v>173</v>
       </c>
-      <c r="AR45" t="s">
+      <c r="AS45" t="s">
         <v>174</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:45">
@@ -7188,19 +7179,19 @@
         <v>150</v>
       </c>
       <c r="AO46">
-        <v>-0.0179127469710215</v>
+        <v>-0.0120338549851953</v>
       </c>
       <c r="AP46">
-        <v>0.4530609756097561</v>
+        <v>0.5169999999999999</v>
       </c>
       <c r="AQ46" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR46" t="s">
         <v>173</v>
       </c>
-      <c r="AR46" t="s">
+      <c r="AS46" t="s">
         <v>174</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:45">
@@ -7318,14 +7309,20 @@
       <c r="AN47" t="s">
         <v>150</v>
       </c>
+      <c r="AO47">
+        <v>0.0210984785689725</v>
+      </c>
+      <c r="AP47">
+        <v>0.4333584905660377</v>
+      </c>
       <c r="AQ47" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR47" t="s">
         <v>173</v>
       </c>
-      <c r="AR47" t="s">
+      <c r="AS47" t="s">
         <v>174</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:45">
@@ -7444,19 +7441,19 @@
         <v>150</v>
       </c>
       <c r="AO48">
-        <v>0.0584490941440582</v>
+        <v>0.0545171882110399</v>
       </c>
       <c r="AP48">
-        <v>0.4530609756097561</v>
+        <v>0.2737058823529412</v>
       </c>
       <c r="AQ48" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR48" t="s">
         <v>173</v>
       </c>
-      <c r="AR48" t="s">
+      <c r="AS48" t="s">
         <v>174</v>
-      </c>
-      <c r="AS48" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:45">
@@ -7575,19 +7572,19 @@
         <v>150</v>
       </c>
       <c r="AO49">
-        <v>-0.135184266700632</v>
+        <v>-0.06550473885713699</v>
       </c>
       <c r="AP49">
-        <v>0.06466666666666659</v>
+        <v>0.1523076923076922</v>
       </c>
       <c r="AQ49" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR49" t="s">
         <v>173</v>
       </c>
-      <c r="AR49" t="s">
+      <c r="AS49" t="s">
         <v>174</v>
-      </c>
-      <c r="AS49" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:45">
@@ -7706,19 +7703,19 @@
         <v>150</v>
       </c>
       <c r="AO50">
-        <v>-0.012454742131456</v>
+        <v>-0.0006194490411426</v>
       </c>
       <c r="AP50">
-        <v>0.4816162790697674</v>
+        <v>0.5679473684210526</v>
       </c>
       <c r="AQ50" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR50" t="s">
         <v>173</v>
       </c>
-      <c r="AR50" t="s">
+      <c r="AS50" t="s">
         <v>174</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7873,13 +7870,13 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2">
         <v>2.313605999316581</v>
@@ -7975,36 +7972,36 @@
         <v>0.9292735303476836</v>
       </c>
       <c r="AL2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
         <v>180</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>181</v>
-      </c>
       <c r="AO2">
-        <v>0.543728570450936</v>
+        <v>0.5868594790300592</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS2" t="s">
         <v>174</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3">
         <v>1.462627461763043</v>
@@ -8100,7 +8097,7 @@
         <v>1.106539777104723</v>
       </c>
       <c r="AL3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -8109,30 +8106,30 @@
         <v>150</v>
       </c>
       <c r="AO3">
-        <v>0.2390357512906803</v>
+        <v>0.2342791999247087</v>
       </c>
       <c r="AP3">
-        <v>0.095</v>
+        <v>0.192</v>
       </c>
       <c r="AQ3" t="s">
         <v>152</v>
       </c>
       <c r="AR3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS3" t="s">
         <v>174</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>178</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>179</v>
       </c>
       <c r="F4">
         <v>0.986707253388984</v>
@@ -8228,7 +8225,7 @@
         <v>1.004378509369563</v>
       </c>
       <c r="AL4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -8237,19 +8234,19 @@
         <v>150</v>
       </c>
       <c r="AO4">
-        <v>0.0111295466441605</v>
+        <v>0.008617532537865799</v>
       </c>
       <c r="AP4">
-        <v>0.4647297297297297</v>
+        <v>0.5085714285714286</v>
       </c>
       <c r="AQ4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS4" t="s">
         <v>174</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -8404,16 +8401,16 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
         <v>220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>221</v>
       </c>
       <c r="F2">
         <v>1.209820066509041</v>
@@ -8521,33 +8518,33 @@
         <v>150</v>
       </c>
       <c r="AO2">
-        <v>0.09069001180874629</v>
+        <v>0.0923238387791438</v>
       </c>
       <c r="AP2">
-        <v>0.02</v>
+        <v>0.00548</v>
       </c>
       <c r="AQ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR2" t="s">
         <v>173</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>174</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:45">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3">
         <v>1.209820066509041</v>
@@ -8655,33 +8652,33 @@
         <v>150</v>
       </c>
       <c r="AO3">
-        <v>0.0906900118087465</v>
+        <v>0.09232383877914301</v>
       </c>
       <c r="AP3">
-        <v>0.02</v>
+        <v>0.00548</v>
       </c>
       <c r="AQ3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR3" t="s">
         <v>173</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>174</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4">
         <v>1.123459404605701</v>
@@ -8789,30 +8786,30 @@
         <v>150</v>
       </c>
       <c r="AO4">
-        <v>0.1708471835676315</v>
+        <v>0.1731400145035631</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AR4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AS4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5">
         <v>1.113141920967611</v>
@@ -8920,33 +8917,33 @@
         <v>150</v>
       </c>
       <c r="AO5">
-        <v>0.0487043728379455</v>
+        <v>0.0467730651309561</v>
       </c>
       <c r="AP5">
-        <v>0.2623584905660377</v>
+        <v>0.3298148148148148</v>
       </c>
       <c r="AQ5" t="s">
         <v>153</v>
       </c>
       <c r="AR5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS5" t="s">
         <v>174</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F6">
         <v>1.053509084187842</v>
@@ -9054,33 +9051,33 @@
         <v>150</v>
       </c>
       <c r="AO6">
-        <v>0.0106277514180464</v>
+        <v>0.009786096523929</v>
       </c>
       <c r="AP6">
-        <v>0.4901785714285714</v>
+        <v>0.4781826923076923</v>
       </c>
       <c r="AQ6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS6" t="s">
         <v>174</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F7">
         <v>1.053509084187842</v>
@@ -9188,33 +9185,33 @@
         <v>150</v>
       </c>
       <c r="AO7">
-        <v>0.0106277514180466</v>
+        <v>0.0097860965239287</v>
       </c>
       <c r="AP7">
-        <v>0.4901785714285714</v>
+        <v>0.4781826923076923</v>
       </c>
       <c r="AQ7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AR7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS7" t="s">
         <v>174</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F8">
         <v>1.019906050471359</v>
@@ -9322,33 +9319,30 @@
         <v>150</v>
       </c>
       <c r="AO8">
-        <v>0.0136227161266771</v>
+        <v>0.0146940815165539</v>
       </c>
       <c r="AP8">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS8" t="s">
         <v>174</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9">
         <v>1.019906050471359</v>
@@ -9456,33 +9450,30 @@
         <v>150</v>
       </c>
       <c r="AO9">
-        <v>0.0136227161266781</v>
+        <v>0.0146940815165539</v>
       </c>
       <c r="AP9">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS9" t="s">
         <v>174</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F10">
         <v>1.019906050471359</v>
@@ -9590,33 +9581,30 @@
         <v>150</v>
       </c>
       <c r="AO10">
-        <v>0.0136227161266772</v>
+        <v>0.0146940815165538</v>
       </c>
       <c r="AP10">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS10" t="s">
         <v>174</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F11">
         <v>1.019906050471359</v>
@@ -9724,30 +9712,27 @@
         <v>150</v>
       </c>
       <c r="AO11">
-        <v>0.0136227161266781</v>
+        <v>0.0146940815165539</v>
       </c>
       <c r="AP11">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS11" t="s">
         <v>174</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
         <v>125</v>
@@ -9858,33 +9843,30 @@
         <v>150</v>
       </c>
       <c r="AO12">
-        <v>0.0136227161266773</v>
+        <v>0.0146940815165542</v>
       </c>
       <c r="AP12">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS12" t="s">
         <v>174</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:45">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13">
         <v>1.019906050471359</v>
@@ -9992,33 +9974,30 @@
         <v>150</v>
       </c>
       <c r="AO13">
-        <v>0.0136227161266772</v>
+        <v>0.014694081516554</v>
       </c>
       <c r="AP13">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS13" t="s">
         <v>174</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F14">
         <v>1.019906050471359</v>
@@ -10126,33 +10105,30 @@
         <v>150</v>
       </c>
       <c r="AO14">
-        <v>0.013622716126678</v>
+        <v>0.0146940815165537</v>
       </c>
       <c r="AP14">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR14" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS14" t="s">
         <v>174</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F15">
         <v>1.019906050471359</v>
@@ -10260,33 +10236,30 @@
         <v>150</v>
       </c>
       <c r="AO15">
-        <v>0.0136227161266773</v>
+        <v>0.0146940815165541</v>
       </c>
       <c r="AP15">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS15" t="s">
         <v>174</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F16">
         <v>1.019906050471359</v>
@@ -10394,33 +10367,30 @@
         <v>150</v>
       </c>
       <c r="AO16">
-        <v>0.0136227161266781</v>
+        <v>0.0146940815165537</v>
       </c>
       <c r="AP16">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS16" t="s">
         <v>174</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F17">
         <v>1.019906050471359</v>
@@ -10528,33 +10498,30 @@
         <v>150</v>
       </c>
       <c r="AO17">
-        <v>0.0136227161266782</v>
+        <v>0.014694081516554</v>
       </c>
       <c r="AP17">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS17" t="s">
         <v>174</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:45">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F18">
         <v>1.019906050471359</v>
@@ -10662,33 +10629,30 @@
         <v>150</v>
       </c>
       <c r="AO18">
-        <v>0.0136227161266782</v>
+        <v>0.014694081516554</v>
       </c>
       <c r="AP18">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS18" t="s">
         <v>174</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:45">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F19">
         <v>1.019906050471359</v>
@@ -10796,33 +10760,30 @@
         <v>150</v>
       </c>
       <c r="AO19">
-        <v>0.013622716126678</v>
+        <v>0.0146940815165537</v>
       </c>
       <c r="AP19">
-        <v>0.0162</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>155</v>
+        <v>0.00548</v>
       </c>
       <c r="AR19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS19" t="s">
         <v>174</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:45">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20">
         <v>1.012807053899817</v>
@@ -10930,30 +10891,33 @@
         <v>150</v>
       </c>
       <c r="AO20">
-        <v>-0.0228625239863311</v>
+        <v>-0.0235916690835317</v>
       </c>
       <c r="AP20">
-        <v>0.4901785714285714</v>
+        <v>0.4795</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>163</v>
       </c>
       <c r="AR20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS20" t="s">
         <v>174</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:45">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F21">
         <v>0.9957558261340288</v>
@@ -11058,33 +11022,33 @@
         <v>150</v>
       </c>
       <c r="AO21">
-        <v>-0.0106502413832157</v>
+        <v>-0.0102333441793756</v>
       </c>
       <c r="AP21">
-        <v>0.5154545454545455</v>
+        <v>0.5257235772357723</v>
       </c>
       <c r="AQ21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AR21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS21" t="s">
         <v>174</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:45">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F22">
         <v>0.9957458597069904</v>
@@ -11189,33 +11153,33 @@
         <v>150</v>
       </c>
       <c r="AO22">
-        <v>-0.0105563243199328</v>
+        <v>-0.0102790841788666</v>
       </c>
       <c r="AP22">
-        <v>0.5007692307692307</v>
+        <v>0.522172131147541</v>
       </c>
       <c r="AQ22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AR22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS22" t="s">
         <v>174</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F23">
         <v>0.995713463564408</v>
@@ -11320,33 +11284,33 @@
         <v>150</v>
       </c>
       <c r="AO23">
-        <v>0.0016651724921697</v>
+        <v>0.0015810516668402</v>
       </c>
       <c r="AP23">
-        <v>0.5007692307692307</v>
+        <v>0.500716814159292</v>
       </c>
       <c r="AQ23" t="s">
         <v>156</v>
       </c>
       <c r="AR23" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS23" t="s">
         <v>174</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:45">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F24">
         <v>0.9955547020004388</v>
@@ -11451,33 +11415,33 @@
         <v>150</v>
       </c>
       <c r="AO24">
-        <v>-0.0258965770758963</v>
+        <v>-0.0264347331630287</v>
       </c>
       <c r="AP24">
-        <v>0.4842</v>
+        <v>0.47128</v>
       </c>
       <c r="AQ24" t="s">
         <v>158</v>
       </c>
       <c r="AR24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS24" t="s">
         <v>174</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:45">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F25">
         <v>0.9946944456673548</v>
@@ -11582,33 +11546,33 @@
         <v>150</v>
       </c>
       <c r="AO25">
-        <v>0.0429818757837443</v>
+        <v>0.0419537995419471</v>
       </c>
       <c r="AP25">
-        <v>0.3523728813559322</v>
+        <v>0.3256981132075471</v>
       </c>
       <c r="AQ25" t="s">
         <v>153</v>
       </c>
       <c r="AR25" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS25" t="s">
         <v>174</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:45">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F26">
         <v>0.994511948789644</v>
@@ -11713,33 +11677,33 @@
         <v>150</v>
       </c>
       <c r="AO26">
-        <v>0.0207324704071839</v>
+        <v>0.0129746067480077</v>
       </c>
       <c r="AP26">
-        <v>0.4734507042253521</v>
+        <v>0.4781826923076923</v>
       </c>
       <c r="AQ26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AR26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS26" t="s">
         <v>174</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:45">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F27">
         <v>0.9938493881271996</v>
@@ -11844,33 +11808,33 @@
         <v>150</v>
       </c>
       <c r="AO27">
-        <v>0.0177092920787882</v>
+        <v>0.0164008677858958</v>
       </c>
       <c r="AP27">
-        <v>0.4901785714285714</v>
+        <v>0.4781826923076923</v>
       </c>
       <c r="AQ27" t="s">
         <v>152</v>
       </c>
       <c r="AR27" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS27" t="s">
         <v>174</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:45">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F28">
         <v>0.9938353764799012</v>
@@ -11975,33 +11939,33 @@
         <v>150</v>
       </c>
       <c r="AO28">
-        <v>-0.0384486796414258</v>
+        <v>-0.0333819797716866</v>
       </c>
       <c r="AP28">
-        <v>0.1021621621621621</v>
+        <v>0.1189736842105263</v>
       </c>
       <c r="AQ28" t="s">
         <v>162</v>
       </c>
       <c r="AR28" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS28" t="s">
         <v>174</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:45">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F29">
         <v>0.993777978267646</v>
@@ -12106,33 +12070,33 @@
         <v>150</v>
       </c>
       <c r="AO29">
-        <v>-0.0148238747722446</v>
+        <v>-0.0144857573609488</v>
       </c>
       <c r="AP29">
-        <v>0.5003804347826087</v>
+        <v>0.4858425925925926</v>
       </c>
       <c r="AQ29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AR29" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS29" t="s">
         <v>174</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F30">
         <v>0.9937653870579136</v>
@@ -12237,33 +12201,33 @@
         <v>150</v>
       </c>
       <c r="AO30">
-        <v>-0.0272664400864785</v>
+        <v>-0.0284023248217921</v>
       </c>
       <c r="AP30">
-        <v>0.3883846153846154</v>
+        <v>0.3966865671641791</v>
       </c>
       <c r="AQ30" t="s">
         <v>152</v>
       </c>
       <c r="AR30" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS30" t="s">
         <v>174</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:45">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F31">
         <v>0.993691328516264</v>
@@ -12368,33 +12332,33 @@
         <v>150</v>
       </c>
       <c r="AO31">
-        <v>-0.0096867290862627</v>
+        <v>-0.008678347291298599</v>
       </c>
       <c r="AP31">
-        <v>0.5154545454545455</v>
+        <v>0.530875</v>
       </c>
       <c r="AQ31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AR31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS31" t="s">
         <v>174</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F32">
         <v>0.9932116042827828</v>
@@ -12499,33 +12463,33 @@
         <v>150</v>
       </c>
       <c r="AO32">
-        <v>0.0189071774510573</v>
+        <v>0.0183061111977539</v>
       </c>
       <c r="AP32">
-        <v>0.5003804347826087</v>
+        <v>0.4781826923076923</v>
       </c>
       <c r="AQ32" t="s">
         <v>156</v>
       </c>
       <c r="AR32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS32" t="s">
         <v>174</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:45">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F33">
         <v>0.9907749816574992</v>
@@ -12630,33 +12594,33 @@
         <v>150</v>
       </c>
       <c r="AO33">
-        <v>0.0075503883902487</v>
+        <v>0.0142286104318258</v>
       </c>
       <c r="AP33">
-        <v>0.5007692307692307</v>
+        <v>0.4781826923076923</v>
       </c>
       <c r="AQ33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AR33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS33" t="s">
         <v>174</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:45">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F34">
         <v>0.9905067077925492</v>
@@ -12761,33 +12725,33 @@
         <v>150</v>
       </c>
       <c r="AO34">
-        <v>0.0413066549463759</v>
+        <v>0.0426515744607534</v>
       </c>
       <c r="AP34">
-        <v>0.234</v>
+        <v>0.2210681818181818</v>
       </c>
       <c r="AQ34" t="s">
         <v>152</v>
       </c>
       <c r="AR34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS34" t="s">
         <v>174</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:45">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F35">
         <v>0.9901932642858112</v>
@@ -12892,33 +12856,33 @@
         <v>150</v>
       </c>
       <c r="AO35">
-        <v>-0.0380643065343406</v>
+        <v>-0.0361353566941845</v>
       </c>
       <c r="AP35">
-        <v>0.3814285714285714</v>
+        <v>0.3966865671641791</v>
       </c>
       <c r="AQ35" t="s">
         <v>152</v>
       </c>
       <c r="AR35" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS35" t="s">
         <v>174</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:45">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F36">
         <v>0.9889142427866784</v>
@@ -13023,33 +12987,33 @@
         <v>150</v>
       </c>
       <c r="AO36">
-        <v>-0.008110210495407401</v>
+        <v>-0.0095200078056321</v>
       </c>
       <c r="AP36">
-        <v>0.5154545454545455</v>
+        <v>0.5146134453781512</v>
       </c>
       <c r="AQ36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AR36" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS36" t="s">
         <v>174</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:45">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F37">
         <v>0.9868939537474446</v>
@@ -13154,33 +13118,33 @@
         <v>151</v>
       </c>
       <c r="AO37">
-        <v>-0.0586974018022062</v>
+        <v>-0.0638117584390594</v>
       </c>
       <c r="AP37">
-        <v>0.2622115384615385</v>
+        <v>0.2361063829787233</v>
       </c>
       <c r="AQ37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AR37" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS37" t="s">
         <v>174</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:45">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F38">
         <v>0.986819665564022</v>
@@ -13285,33 +13249,33 @@
         <v>150</v>
       </c>
       <c r="AO38">
-        <v>0.0147422721275489</v>
+        <v>0.008784602760039201</v>
       </c>
       <c r="AP38">
-        <v>0.4901785714285714</v>
+        <v>0.4889266055045871</v>
       </c>
       <c r="AQ38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AR38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS38" t="s">
         <v>174</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:45">
       <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>219</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>220</v>
-      </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39">
         <v>0.9835636069340188</v>
@@ -13416,19 +13380,19 @@
         <v>151</v>
       </c>
       <c r="AO39">
-        <v>0.0304774046827216</v>
+        <v>0.0330074783931863</v>
       </c>
       <c r="AP39">
-        <v>0.4816216216216216</v>
+        <v>0.4732727272727273</v>
       </c>
       <c r="AQ39" t="s">
         <v>161</v>
       </c>
       <c r="AR39" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS39" t="s">
         <v>174</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
